--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\geek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB68A8-3452-43FF-9681-2013CEBCF78B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10695C2C-0724-49F4-A9F9-AB8F9FA6DF62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="924" windowWidth="16356" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>题目</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>283. 移动零</t>
+  </si>
+  <si>
+    <t>641. 设计循环双端队列</t>
+  </si>
+  <si>
+    <t>49. 字母异位词分组</t>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>429. N 叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>剑指 Offer 49. 丑数</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>Week 1</t>
   </si>
 </sst>
 </file>
@@ -129,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,20 +164,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:L11"/>
+  <dimension ref="E1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +533,7 @@
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +556,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
@@ -479,32 +570,39 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="2" t="s">
+      <c r="H3" s="2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3.12</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>3.14</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H5">
         <v>3.14</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F6" s="2" t="s">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H6">
@@ -514,38 +612,100 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="2" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H7">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F8" s="2" t="s">
+      <c r="I7" s="2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F9" s="2" t="s">
+      <c r="I8">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F11" s="2" t="s">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E19"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{A48F1D41-B4D3-4C49-818A-33F022B48A7B}"/>
     <hyperlink ref="F3" r:id="rId2" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{FDC54DB0-0695-451E-BDA8-8ABC00D9576A}"/>
@@ -557,6 +717,14 @@
     <hyperlink ref="F10" r:id="rId8" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{1E2F77A7-9782-4072-B6D3-330375B49C79}"/>
     <hyperlink ref="F11" r:id="rId9" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/" xr:uid="{83059851-931D-4849-A2C0-AA1C81369E64}"/>
     <hyperlink ref="F7" r:id="rId10" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{B71B7F4B-A98E-4A52-8206-0BD352C43676}"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{774C9D0A-5C63-4BF9-955A-BE6BBC51C031}"/>
+    <hyperlink ref="F13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{E4096434-711D-452A-A6AE-638442F49C9A}"/>
+    <hyperlink ref="F14" r:id="rId13" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{77D38159-6541-4192-AEB2-6131793DFC8A}"/>
+    <hyperlink ref="F15" r:id="rId14" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{3087BAE9-93B0-4E67-AF34-D99447637960}"/>
+    <hyperlink ref="F16" r:id="rId15" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{CE1B74D1-4E34-42FF-BD8E-7F71A1ED55F6}"/>
+    <hyperlink ref="F17" r:id="rId16" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{00E137E0-AF99-4B05-ADB5-25AAB7844DCC}"/>
+    <hyperlink ref="F18" r:id="rId17" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{09170B44-5192-4E1E-9E4F-F6F032C475AF}"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://leetcode-cn.com/problems/trapping-rain-water/" xr:uid="{3BA64B13-542B-4A56-A20C-EC54491F6478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\geek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10695C2C-0724-49F4-A9F9-AB8F9FA6DF62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0635E27-9E81-4D1A-BDEF-72EB7E08A3CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="1965" windowWidth="20685" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>题目</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
   </si>
 </sst>
 </file>
@@ -174,21 +186,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -216,19 +213,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -236,8 +242,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,20 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:L19"/>
+  <dimension ref="E1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,11 +568,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
@@ -570,18 +582,18 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="3" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>3.14</v>
       </c>
     </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2">
@@ -591,18 +603,18 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5">
         <v>3.14</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="8"/>
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H6">
@@ -612,9 +624,9 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H7">
@@ -624,9 +636,9 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="8"/>
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -636,75 +648,108 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+      <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+      <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+      <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+      <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
-      <c r="F17" s="5" t="s">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
-      <c r="F18" s="5" t="s">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+      <c r="F19" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E2:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{A48F1D41-B4D3-4C49-818A-33F022B48A7B}"/>
@@ -725,6 +770,10 @@
     <hyperlink ref="F17" r:id="rId16" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{00E137E0-AF99-4B05-ADB5-25AAB7844DCC}"/>
     <hyperlink ref="F18" r:id="rId17" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{09170B44-5192-4E1E-9E4F-F6F032C475AF}"/>
     <hyperlink ref="F19" r:id="rId18" display="https://leetcode-cn.com/problems/trapping-rain-water/" xr:uid="{3BA64B13-542B-4A56-A20C-EC54491F6478}"/>
+    <hyperlink ref="F20" r:id="rId19" display="https://leetcode-cn.com/problems/container-with-most-water/" xr:uid="{C26C3597-CF21-4E13-93FE-82872CBB5528}"/>
+    <hyperlink ref="F21" r:id="rId20" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{AF89A0CE-33B5-42FA-B0B5-ED335ABD3176}"/>
+    <hyperlink ref="F23" r:id="rId21" display="https://leetcode-cn.com/problems/climbing-stairs/" xr:uid="{EAFB819C-C6DD-4BD8-A98D-4983D454A35B}"/>
+    <hyperlink ref="F24" r:id="rId22" display="https://leetcode-cn.com/problems/generate-parentheses/" xr:uid="{8F6BE342-DD94-4D37-AB4E-1761257A7E76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
